--- a/Specification/인적자원관리_테이블명세서_v1_0_0.xlsx
+++ b/Specification/인적자원관리_테이블명세서_v1_0_0.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\서활빈\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HKIT\Desktop\KIT-PMS\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3D902-BCC4-4D7B-9405-220ED5E9AC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062FE38B-4547-4896-A636-65486F247B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tb_atd" sheetId="2" r:id="rId1"/>
-    <sheet name="tb_vac" sheetId="3" r:id="rId2"/>
+    <sheet name="tb_mbr" sheetId="4" r:id="rId1"/>
+    <sheet name="tb_atd" sheetId="2" r:id="rId2"/>
+    <sheet name="tb_vac" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="212">
   <si>
     <t xml:space="preserve"> 문서ID</t>
   </si>
@@ -562,6 +563,238 @@
   <si>
     <t>tb_mbr : 사번</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_mbr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인적 정보 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>차상엽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_mbr_pk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_mbr_sn_fk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_SN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_mbr_idx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_NM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ENM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>MBR_BIRTH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_TEL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사내전화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 200자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_PHONE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화AES256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_EM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_FAX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ADDR_BX</t>
+  </si>
+  <si>
+    <t>기본 주소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ADDR_DTL</t>
+  </si>
+  <si>
+    <t>상세 주소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ADDR_POST</t>
+  </si>
+  <si>
+    <t>우편 주소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_DEP_CD</t>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 6자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_HIRED_D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_FIRED_D</t>
+  </si>
+  <si>
+    <t>퇴사일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ID</t>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_PW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_CLS_CD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_MAIN_TASK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당업무</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_DIS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애 종류 &amp; 등급</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_VTR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>보훈대상자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 3자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 / 비대상</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_MBR_info : 아이디</t>
   </si>
 </sst>
 </file>
@@ -571,7 +804,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -624,6 +857,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -742,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -824,54 +1062,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,6 +1118,15 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,27 +1342,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DA835-865B-4BB4-AB63-CB464EA0B398}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52821BEC-200F-48D9-8998-6FEBC01E8907}">
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K18"/>
+      <selection sqref="A1:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1126,28 +1373,28 @@
       <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="28"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="44"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1156,9 +1403,7 @@
       <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1169,15 +1414,15 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="45">
-        <v>44821.642395833333</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>44823</v>
+      </c>
+      <c r="E3" s="47"/>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1193,238 +1438,238 @@
         <v>13</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="28"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="A5" s="11" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="28"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="28"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="28"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="28"/>
+      <c r="B9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="33" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="28"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="33" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="28"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="47"/>
+      <c r="L14" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -1437,16 +1682,16 @@
         <v>94</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>97</v>
@@ -1463,35 +1708,31 @@
         <v>2</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>150</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12">
@@ -1499,35 +1740,27 @@
         <v>3</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>151</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12">
@@ -1535,23 +1768,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="22" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="18"/>
@@ -1563,17 +1794,15 @@
         <v>5</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="22" t="s">
@@ -1589,27 +1818,23 @@
         <v>6</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I21" s="26"/>
       <c r="J21" s="18"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -1619,25 +1844,27 @@
         <v>7</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="J22" s="18"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -1647,23 +1874,21 @@
         <v>8</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="22" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="18"/>
@@ -1675,25 +1900,23 @@
         <v>9</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I24" s="26"/>
       <c r="J24" s="18"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -1703,21 +1926,23 @@
         <v>10</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="19"/>
+        <v>163</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="22" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="18"/>
@@ -1729,21 +1954,21 @@
         <v>11</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="19"/>
+        <v>163</v>
+      </c>
+      <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="22" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="18"/>
@@ -1755,21 +1980,23 @@
         <v>12</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="G27" s="15"/>
       <c r="H27" s="22" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="18"/>
@@ -1781,23 +2008,27 @@
         <v>13</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="G28" s="15"/>
       <c r="H28" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="26"/>
+        <v>190</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>191</v>
+      </c>
       <c r="J28" s="18"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -1807,21 +2038,19 @@
         <v>14</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="19"/>
+        <v>117</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="22" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="18"/>
@@ -1833,118 +2062,414 @@
         <v>15</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7">
+        <v>16</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7">
+        <v>17</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7">
+        <v>18</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="7">
+        <v>19</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="7">
+        <v>20</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7">
+        <v>21</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7">
+        <v>22</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7">
+        <v>23</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="7">
+        <v>24</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7">
+        <v>25</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="1:12" ht="24">
+      <c r="A41" s="7">
+        <v>26</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D41" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E41" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="17" t="s">
+      <c r="G41" s="19"/>
+      <c r="H41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I41" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J41" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="25">
-        <v>16</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="K41" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="25">
+        <v>27</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="25">
-        <v>17</v>
-      </c>
-      <c r="B32" s="26" t="s">
+      <c r="G42" s="19"/>
+      <c r="H42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:12" ht="24">
+      <c r="A43" s="25">
+        <v>28</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C43" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E43" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="17" t="s">
+      <c r="G43" s="19"/>
+      <c r="H43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I43" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J43" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="25">
-        <v>18</v>
-      </c>
-      <c r="B33" s="26" t="s">
+      <c r="K43" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="25">
+        <v>29</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C44" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="17" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -1988,6 +2513,908 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{2BA54AEC-A2D7-4254-A484-60ADF55F250B}">
+      <formula1>"KEY,MAIN,ACTION"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DA835-865B-4BB4-AB63-CB464EA0B398}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="45">
+        <v>44821.642395833333</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7">
+        <v>7</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7">
+        <v>9</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7">
+        <v>10</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7">
+        <v>11</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7">
+        <v>12</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7">
+        <v>13</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7">
+        <v>14</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7">
+        <v>15</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="25">
+        <v>16</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="25">
+        <v>17</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="25">
+        <v>18</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:L15"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{21D538F9-D6E2-4E17-900C-88285B7510A6}">
       <formula1>"KEY,MAIN,ACTION"</formula1>
     </dataValidation>
@@ -1997,28 +3424,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFD81AE-8D1A-4A11-B9F1-AA104E5D15ED}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2037,7 +3464,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
-      <c r="L1" s="28"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2050,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="44"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +3507,7 @@
       <c r="D3" s="45">
         <v>44821.662187499998</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +3530,7 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -2113,7 +3540,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="28"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="A5" s="11" t="s">
@@ -2122,7 +3549,7 @@
       <c r="B5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="43" t="s">
         <v>17</v>
       </c>
@@ -2133,17 +3560,17 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="32"/>
@@ -2153,17 +3580,17 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="42" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="32"/>
@@ -2173,15 +3600,15 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
@@ -2189,17 +3616,17 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1">
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -2207,127 +3634,127 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="33" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="32"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="33" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="31" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="39"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -2485,7 +3912,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="1:12" ht="24">
+    <row r="21" spans="1:12">
       <c r="A21" s="7">
         <v>6</v>
       </c>
@@ -2763,28 +4190,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="I11:L11"/>
@@ -2794,12 +4205,28 @@
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:L15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
